--- a/data/trans_orig/Q02D_LAB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>5.429485819872046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.19136964415736</v>
+        <v>4.191369644157361</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.804338984112911</v>
@@ -681,7 +681,7 @@
         <v>9.727426457795211</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.222846715445337</v>
+        <v>6.222846715445336</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>6.720077239211852</v>
@@ -693,7 +693,7 @@
         <v>8.425073461046209</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5.509545287831008</v>
+        <v>5.509545287831007</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.404495931504519</v>
+        <v>4.443547301013139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.128392738153102</v>
+        <v>4.190522982621965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.134619859053347</v>
+        <v>4.280709689665786</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.657158743146386</v>
+        <v>5.573257230670145</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.321378046991726</v>
+        <v>6.353373837768216</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.49378683517163</v>
+        <v>8.43927775987965</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.538950652888949</v>
+        <v>3.747320624556064</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.541355615510322</v>
+        <v>5.485380376132082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.862575222320899</v>
+        <v>5.802372216278219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.314427641326075</v>
+        <v>7.418533049707158</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.561200920996238</v>
+        <v>3.611441404465478</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.12025570501884</v>
+        <v>10.43316078066501</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.243360801145745</v>
+        <v>6.213091481520115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.22509651507717</v>
+        <v>7.602948433305073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.65254890256065</v>
+        <v>11.39955660820748</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.731755101026081</v>
+        <v>8.662629173428021</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.861283160207011</v>
+        <v>7.948379421767082</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.11908266953123</v>
+        <v>11.14862618093022</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.11020700730251</v>
+        <v>10.71791572765319</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.345957015149285</v>
+        <v>8.16769245667013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.189157131978612</v>
+        <v>7.159578491032167</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9.592744723751197</v>
+        <v>9.664967388716322</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.516229648695221</v>
+        <v>8.427055311839204</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>7.34397317729518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.979914109129698</v>
+        <v>8.9799141091297</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.095210307277421</v>
@@ -817,7 +817,7 @@
         <v>9.330447286860297</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>9.741419675233024</v>
+        <v>9.741419675233022</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>6.007579587676133</v>
@@ -829,7 +829,7 @@
         <v>8.59933121792524</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>9.523552994833933</v>
+        <v>9.523552994833938</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.460898169250001</v>
+        <v>3.458391771458032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.948729364689214</v>
+        <v>4.944135223484452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.46657990882142</v>
+        <v>6.523307250349905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.908968858991774</v>
+        <v>6.766774420134514</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.523669885443784</v>
+        <v>6.405897696655809</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.471415756302786</v>
+        <v>7.444788640876428</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.663630806015085</v>
+        <v>8.62217406047918</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.588265981942742</v>
+        <v>8.592471348367482</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.527754165488913</v>
+        <v>5.521903912780587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.660376512439341</v>
+        <v>6.655851954591019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8.055593365253459</v>
+        <v>7.973664533823396</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>8.535223892654342</v>
+        <v>8.56430906756661</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.828429437732146</v>
+        <v>4.909173809495746</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.924423255859869</v>
+        <v>5.966487121778157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.351611977323939</v>
+        <v>8.332209181760065</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.01938814080849</v>
+        <v>12.31228811050672</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.868372056616479</v>
+        <v>7.842021749865702</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.255210188505337</v>
+        <v>8.277013343351621</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>10.09002131213383</v>
+        <v>10.12920998780568</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11.01362413162121</v>
+        <v>11.07876126386603</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>6.56077323277273</v>
+        <v>6.591531000704546</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.332148896690762</v>
+        <v>7.339868974491368</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9.234476881302395</v>
+        <v>9.202881851172872</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.97234525160658</v>
+        <v>10.85746883742062</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>6.47462443382198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.643675944273173</v>
+        <v>5.643675944273174</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>5.063544151094771</v>
@@ -953,7 +953,7 @@
         <v>8.229689600404889</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.755144235667961</v>
+        <v>7.75514423566796</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>4.266310433915919</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.809324341902518</v>
+        <v>2.806610858113039</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.25369029738275</v>
+        <v>4.297940032469965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.921682670959689</v>
+        <v>5.959678065402966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.798652125584568</v>
+        <v>4.839022819376854</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.60155939310654</v>
+        <v>4.618965946631415</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.142944049923254</v>
+        <v>6.134153168679096</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.714251550771374</v>
+        <v>7.637919816508796</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.006543343120241</v>
+        <v>7.013304359208782</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.929590419886701</v>
+        <v>3.950216786102511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.419294167665465</v>
+        <v>5.442471036964006</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.061721743525879</v>
+        <v>7.045185312185645</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.221179273538463</v>
+        <v>6.304691494023015</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.558730150232419</v>
+        <v>3.528521888399395</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.926976888532744</v>
+        <v>4.953161432040096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.162620873116038</v>
+        <v>7.117493487014427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.805873847035787</v>
+        <v>6.929066461701696</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.609434482200348</v>
+        <v>5.618896101802677</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.764771716758409</v>
+        <v>6.806734882824595</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.855653330160278</v>
+        <v>8.880460626575022</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.639728634638942</v>
+        <v>8.828489693797209</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.643211308422784</v>
+        <v>4.660221742493783</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5.908174847381005</v>
+        <v>5.92771367394861</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.905512705586948</v>
+        <v>7.898018746799422</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.483429280337188</v>
+        <v>7.59728418050031</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>7.075133590919271</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>5.825575520568902</v>
+        <v>5.825575520568903</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>3.554759487461247</v>
@@ -1101,7 +1101,7 @@
         <v>6.323309793626352</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>5.185246594768796</v>
+        <v>5.185246594768797</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.889792739592347</v>
+        <v>1.860250570431978</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.346126675059853</v>
+        <v>3.364332578859576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.672733138475238</v>
+        <v>4.667876036386937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.524922353512436</v>
+        <v>3.596716065428471</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.949089733728039</v>
+        <v>4.020953966670155</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.77336522299001</v>
+        <v>4.789187449952704</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.30000876603139</v>
+        <v>6.347730138430518</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>5.070145386955801</v>
+        <v>4.999911190439193</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.096390007750217</v>
+        <v>3.068717045942704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4.222159647405818</v>
+        <v>4.207521140380691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5.737806936286488</v>
+        <v>5.798010564333263</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>4.593915069067974</v>
+        <v>4.593087156656018</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.888297677239224</v>
+        <v>2.834562060386395</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.242645205795183</v>
+        <v>4.230428989114004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.335910581430212</v>
+        <v>6.350036526736508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.848448991190984</v>
+        <v>6.104415164234348</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.611225346157126</v>
+        <v>5.682922253266717</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.736173400374096</v>
+        <v>5.770904364572853</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.880488912356037</v>
+        <v>7.990467451678914</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>6.812363577982851</v>
+        <v>6.918624607834302</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.160671854345127</v>
+        <v>4.027270924420409</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4.881716274708429</v>
+        <v>4.904251528306361</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6.924712902863559</v>
+        <v>7.052228544984729</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>6.042476077890325</v>
+        <v>6.091112924754376</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>3.959532694396248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.717255040499241</v>
+        <v>3.717255040499242</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>4.948701671698741</v>
@@ -1225,7 +1225,7 @@
         <v>9.271508449249847</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>5.973357435328647</v>
+        <v>5.973357435328649</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>4.980847916563807</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.044927297479039</v>
+        <v>3.084256414005816</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.642626362349406</v>
+        <v>4.454265702231972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.073575398343265</v>
+        <v>3.139260326016036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.000224605229214</v>
+        <v>2.000219462769705</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.011517693756598</v>
+        <v>4.067538608100929</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.025331548405584</v>
+        <v>4.927239600865174</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.444777675850279</v>
+        <v>7.505285183045158</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.41433331028104</v>
+        <v>4.379577544057829</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.050703039462615</v>
+        <v>4.064877224214601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.089728655196443</v>
+        <v>5.155848835667743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5.87401277316042</v>
+        <v>5.881277823119926</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.627724333217993</v>
+        <v>3.634634423683746</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.550835881815365</v>
+        <v>9.013781867007152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.931387717331103</v>
+        <v>6.948966576210757</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.065642427676984</v>
+        <v>5.116103228823143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.433668481052848</v>
+        <v>6.451592060897191</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.60199967698493</v>
+        <v>6.825670948908235</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.739829507566012</v>
+        <v>6.68462345618221</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.54581067368046</v>
+        <v>11.39693869051662</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.116757220192722</v>
+        <v>7.935906874909695</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.41121482733457</v>
+        <v>6.400194390196556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.475595551980468</v>
+        <v>6.488251754185868</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8.606724173402061</v>
+        <v>8.805758763884075</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.384687936510047</v>
+        <v>6.577335500549162</v>
       </c>
     </row>
     <row r="19">
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.256074297026298</v>
+        <v>4.200848506577297</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.512893897902944</v>
+        <v>4.609193866117931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.657985152139013</v>
+        <v>4.5608419196963</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>4.610482326591455</v>
+        <v>4.607813162415743</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.459536960914809</v>
+        <v>5.479783183145641</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4.681836785379311</v>
+        <v>4.727943441539856</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.856786992853361</v>
+        <v>2.88016109500746</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>4.776547713985725</v>
+        <v>4.705573046312132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5.616538130674559</v>
+        <v>5.55743865443443</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.211547690212112</v>
+        <v>5.131927730739912</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.876905167585205</v>
+        <v>2.954542142655536</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.334096435853188</v>
+        <v>7.443033286391566</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.50560738986586</v>
+        <v>9.559913699951784</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.35970951591258</v>
+        <v>11.24952584557131</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>8.422772505255038</v>
+        <v>8.255625590360852</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.783446254158775</v>
+        <v>7.765196513564715</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.605527906953554</v>
+        <v>9.747339479449838</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>4.281280443935906</v>
+        <v>4.294570441812887</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.916058063477583</v>
+        <v>7.853657011822427</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.778424919868934</v>
+        <v>7.725938520019763</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9.246369895899191</v>
+        <v>8.977510355755662</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>4.129030678342478</v>
+        <v>4.135117228056712</v>
       </c>
     </row>
     <row r="22">
@@ -1505,7 +1505,7 @@
         <v>7.708865505975036</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>4.087148314708008</v>
+        <v>4.087148314708007</v>
       </c>
     </row>
     <row r="23">
@@ -1516,38 +1516,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.741131825177217</v>
+        <v>5.617977832631231</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.999242552112136</v>
+        <v>4.051579418850088</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.673669589756464</v>
+        <v>2.612200924297408</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>4.950731396677746</v>
+        <v>4.870101021192195</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.321360176508549</v>
+        <v>5.309857190880926</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.269484910480835</v>
+        <v>6.201703116442269</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.050342463459294</v>
+        <v>3.057882365296491</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.845317058833779</v>
+        <v>5.805270429427041</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.164266647547333</v>
+        <v>5.281081648823959</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5.809232872132617</v>
+        <v>5.737978550203755</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.796437059946804</v>
+        <v>1.807595156609184</v>
       </c>
     </row>
     <row r="24">
@@ -1558,38 +1558,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.00832455134838</v>
+        <v>14.10856677140641</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.074341516549771</v>
+        <v>7.871223978781202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.804361151616991</v>
+        <v>7.889909857802898</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>10.95404671606696</v>
+        <v>10.61556536023425</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.136982179126491</v>
+        <v>8.400639880142498</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.88670002327883</v>
+        <v>11.62834037167021</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8.288302967050557</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.54442016623332</v>
+        <v>10.78158351828322</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7.650987527361891</v>
+        <v>7.721268409664191</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10.44687916727603</v>
+        <v>10.38386402418883</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>7.016642904398778</v>
+        <v>6.830036522606488</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>7.581759069705741</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>6.923712975452706</v>
+        <v>6.923712975452707</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.349190805251983</v>
+        <v>3.31901885244915</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.49201902693467</v>
+        <v>4.485314338831506</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.848031574111727</v>
+        <v>5.888441878051719</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.068397453941725</v>
+        <v>4.982465456691928</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>5.48646810708629</v>
+        <v>5.484570094389847</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>6.384214968855859</v>
+        <v>6.385546029757811</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>8.104369711906424</v>
+        <v>8.092042490055952</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>7.117882852324975</v>
+        <v>7.104817456806499</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>4.734740591094137</v>
+        <v>4.731775519231847</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5.708001087799634</v>
+        <v>5.704944086621871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7.296452516851418</v>
+        <v>7.300649935433555</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>6.418705039805028</v>
+        <v>6.480108517818953</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.02254048620712</v>
+        <v>3.940310998409816</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.946980394629359</v>
+        <v>4.970967950511612</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.660812896166981</v>
+        <v>6.705785051898292</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.601819460402996</v>
+        <v>6.625383901310363</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>6.222726475989657</v>
+        <v>6.151034401636835</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>6.828654022334335</v>
+        <v>6.8306539324224</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>8.849410663691625</v>
+        <v>8.866605483275602</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>8.291731674026222</v>
+        <v>8.391105211801429</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>5.226851036686699</v>
+        <v>5.262280681129933</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6.03253248467217</v>
+        <v>6.020654830794018</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7.860818298937198</v>
+        <v>7.887382292452437</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>7.413866809603816</v>
+        <v>7.472742641848059</v>
       </c>
     </row>
     <row r="28">
